--- a/arrangement.xlsx
+++ b/arrangement.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24718"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WzRobot\For_Wz_Robot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\wz\For_Wz_Robot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80567D22-F827-411F-91B2-F38A46665C3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8090950C-2FD9-4BB6-BFE5-7F50A9E5A845}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="0" windowWidth="21840" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="milestone" sheetId="1" r:id="rId1"/>
     <sheet name="cost" sheetId="2" r:id="rId2"/>
     <sheet name="design reference" sheetId="3" r:id="rId3"/>
+    <sheet name="motor" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -121,6 +122,275 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>22403</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>70293</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD2983A1-CA94-4811-8431-F4CC32E413A8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1095375" y="57150"/>
+          <a:ext cx="5785028" cy="3632643"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>441500</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>131233</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7BD2524-21A1-421E-B959-18E0512DE545}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9029700" y="371475"/>
+          <a:ext cx="5813600" cy="5912908"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>321637</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>58001</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60D46856-298B-4618-8846-1252BC1E84CC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1095375" y="4038600"/>
+          <a:ext cx="6770062" cy="3982301"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>373320</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>166699</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3C6E80A-4C73-4EF6-813B-1FEBEE6EACC9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="952500" y="8867775"/>
+          <a:ext cx="6964620" cy="5233999"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>47626</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>314214</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA44A769-3F42-4365-9F7E-308382AA81E3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8277226" y="8810625"/>
+          <a:ext cx="2323988" cy="4429125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>174806</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>72935</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CC5AC32-C60E-4F9C-9704-802B21F642A6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10868025" y="8848725"/>
+          <a:ext cx="5765981" cy="4254410"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -388,19 +658,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="25.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="26" style="1" customWidth="1"/>
     <col min="3" max="3" width="32" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="1"/>
+    <col min="4" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -408,7 +678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -419,7 +689,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -430,7 +700,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="27.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
@@ -453,7 +723,7 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -464,13 +734,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03E009E1-BC70-4BD0-A086-3C165CA52FF0}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAAC4476-FFE4-426E-8CB8-F6422F454430}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>